--- a/docs/台語方音.xlsx
+++ b/docs/台語方音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/rime-taigi-tps/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FC0687-69C9-1642-8B5C-3FC6B663B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D3FCD-D073-964E-87BF-A448340021B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23540" yWindow="640" windowWidth="22680" windowHeight="20900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23540" yWindow="640" windowWidth="22680" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="365">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1479,12 +1479,99 @@
   <si>
     <t>Nu</t>
   </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>onn</t>
+  </si>
+  <si>
+    <t>enn</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>ainn</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>aunn</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>-n</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>-ng</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>unn</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>tsi</t>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>tshi</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>tsh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1612,8 +1699,35 @@
       <color rgb="FF0070C0"/>
       <name val="LXGW WenKai Mono TC"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Noto Serif TC SemiBold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Noto Serif TC SemiBold"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1635,6 +1749,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1745,6 +1865,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1754,15 +1949,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1775,71 +1961,26 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2145,487 +2286,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C1:AL18"/>
+  <dimension ref="C1:AL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9:AI9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="2.33203125" style="1" customWidth="1"/>
-    <col min="4" max="42" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.33203125" style="1" customWidth="1"/>
+    <col min="3" max="37" width="3.33203125" style="1" customWidth="1"/>
+    <col min="38" max="42" width="2.83203125" style="1" customWidth="1"/>
     <col min="43" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:38" ht="16" thickBot="1"/>
-    <row r="2" spans="3:38" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="C2" s="11">
+    <row r="2" spans="3:38" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="36">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="32">
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="27">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="32">
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="27">
         <v>4</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="32">
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27">
         <v>5</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="32">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="27">
         <v>6</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="32">
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="27">
         <v>7</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="21">
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="22">
         <v>8</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="22">
         <v>9</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="21">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="22">
         <v>0</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="27" t="s">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="23"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="18"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="3:38" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="30" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="str">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="35" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="35" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="35" t="s">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="35" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="24" t="str">
-        <f>D17</f>
+      <c r="V3" s="34"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="23" t="str">
+        <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="24" t="str">
-        <f>K17</f>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="23" t="str">
+        <f>K20</f>
         <v>ㄞ</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="24" t="str">
-        <f>R17</f>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="23" t="str">
+        <f>R20</f>
         <v>ㄢ</v>
       </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="29" t="s">
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="31"/>
-    </row>
-    <row r="4" spans="3:38" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="D4" s="11" t="s">
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="21"/>
+    </row>
+    <row r="4" spans="3:38" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="11" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="11" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="11" t="s">
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="21" t="s">
+      <c r="T4" s="37"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="21" t="s">
+      <c r="W4" s="17"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="21" t="s">
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="21" t="s">
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="23"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="18"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="3:38" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="30" t="str">
         <f>F14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14" t="str">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14" t="str">
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="30" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14" t="str">
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="30" t="str">
         <f>Q14</f>
         <v>ㄐ</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17" t="str">
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="39" t="str">
         <f>M14</f>
         <v>ㆣ</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="14" t="str">
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="30" t="str">
         <f>U14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="24" t="str">
-        <f>X17</f>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="23" t="str">
+        <f>X20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="24" t="str">
-        <f>F17</f>
+      <c r="W5" s="24"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="23" t="str">
+        <f>F20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="24" t="str">
-        <f>I17</f>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="23" t="str">
+        <f>I20</f>
         <v>ㆤ</v>
       </c>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="24" t="str">
-        <f>S17</f>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="23" t="str">
+        <f>S20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="26"/>
-    </row>
-    <row r="6" spans="3:38" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="25"/>
+    </row>
+    <row r="6" spans="3:38" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="11" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="11" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="11" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="21" t="s">
+      <c r="U6" s="37"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="21" t="s">
+      <c r="X6" s="17"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="21" t="s">
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="21" t="s">
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="18"/>
     </row>
     <row r="7" spans="3:38" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="30" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14" t="str">
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="30" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="str">
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="str">
         <f>N14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="14" t="str">
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30" t="str">
         <f>S14</f>
         <v>ㄑ</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="20" t="str">
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="42" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="14" t="str">
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="30" t="str">
         <f>W14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="24" t="str">
-        <f>Z17</f>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="23" t="str">
+        <f>Z20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="24" t="str">
-        <f>H17</f>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="23" t="str">
+        <f>H20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="28" t="str">
-        <f>M17</f>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="26" t="str">
+        <f>M20</f>
         <v>ㄠ</v>
       </c>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="28" t="str">
-        <f>T17</f>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="26" t="str">
+        <f>T20</f>
         <v>ㄤ</v>
       </c>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="26"/>
-    </row>
-    <row r="8" spans="3:38" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="F8" s="11" t="s">
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
+    </row>
+    <row r="8" spans="3:38" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="F8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="11" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="11" t="s">
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="11" t="s">
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="11" t="s">
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="21" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="21" t="s">
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="21" t="s">
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="21" t="s">
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="23"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="3:38" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="14" t="str">
+      <c r="F9" s="30" t="str">
         <f>E14</f>
         <v>ㆠ</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14" t="str">
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="30" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="14" t="str">
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="30" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="14" t="str">
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="30" t="str">
         <f>T14</f>
         <v>ㄒ</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17" t="str">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="39" t="str">
         <f>V14 &amp; " / " &amp; R14</f>
         <v>ㆡ / ㆢ</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="14" t="str">
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="30" t="str">
         <f>X14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="15"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="24" t="str">
-        <f>Q17</f>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="23" t="str">
+        <f>Q20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="24" t="str">
-        <f>O17 &amp; " / " &amp; P17</f>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="23" t="str">
+        <f>O20 &amp; " / " &amp; P20</f>
         <v>ㆰ / ㆱ</v>
       </c>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="24" t="str">
-        <f>U17</f>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="23" t="str">
+        <f>U20</f>
         <v>ㆲ</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="24" t="str">
-        <f>V17 &amp;" / " &amp; W17</f>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="23" t="str">
+        <f>V20 &amp;" / " &amp; W20</f>
         <v>ㄥ / ㆭ</v>
       </c>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="26"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="25"/>
     </row>
     <row r="13" spans="3:38">
       <c r="D13" s="1" t="s">
@@ -2697,236 +2839,562 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="3:38">
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="3:38" ht="20">
+      <c r="D15" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="R15" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="S15" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="T15" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="V15" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="W15" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="X15" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y15" s="43"/>
+    </row>
+    <row r="16" spans="3:38" ht="20">
+      <c r="D16" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="U16" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="X16" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16" s="43"/>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H17" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J17" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K17" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L17" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M17" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N17" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O17" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P17" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q17" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R17" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S17" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T17" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U17" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V17" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W17" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X17" s="48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="3:38">
-      <c r="D16" s="1" t="s">
+    <row r="19" spans="4:27">
+      <c r="D19" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="4:27">
-      <c r="D17" s="1" t="s">
+    <row r="20" spans="4:27">
+      <c r="D20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="4:27">
-      <c r="D18" s="1" t="s">
+    <row r="21" spans="4:27">
+      <c r="D21" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="T21" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="U21" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="V21" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="W21" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="X21" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y21" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z21" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA21" s="46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27">
+      <c r="D22" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="T22" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="U22" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="V22" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="W22" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="X22" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y22" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z22" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA22" s="44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27">
+      <c r="D23" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E23" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F23" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G23" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H23" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I23" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J23" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K23" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L23" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M23" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N23" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O23" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P23" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q23" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R23" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S23" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T23" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U23" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V23" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W23" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X23" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y23" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z23" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA23" s="49" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
@@ -2943,62 +3411,16 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3010,14 +3432,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E3:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="2" width="13" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13" style="13" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="13" style="8" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
@@ -3026,28 +3448,28 @@
     <col min="8" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="38" customFormat="1" ht="27" customHeight="1">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:7" s="11" customFormat="1" ht="27" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="12" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3067,7 +3489,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3087,7 +3509,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3107,7 +3529,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="15" t="s">
         <v>306</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3127,7 +3549,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3147,7 +3569,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="15" t="s">
         <v>307</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3167,7 +3589,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="15" t="s">
         <v>308</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3187,7 +3609,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="15" t="s">
         <v>309</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3207,7 +3629,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3227,7 +3649,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3247,7 +3669,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="15" t="s">
         <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3267,7 +3689,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="15" t="s">
         <v>311</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3281,7 +3703,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3301,7 +3723,7 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="15" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3321,7 +3743,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="15" t="s">
         <v>303</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3341,7 +3763,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="15" t="s">
         <v>304</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3361,7 +3783,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3381,7 +3803,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3401,7 +3823,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="15" t="s">
         <v>313</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3421,7 +3843,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="15" t="s">
         <v>314</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3441,7 +3863,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3461,33 +3883,33 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="41"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="41"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="2:10" ht="18">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="12" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3507,7 +3929,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="15" t="s">
         <v>317</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3527,7 +3949,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3550,7 +3972,7 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="15" t="s">
         <v>318</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3570,7 +3992,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="15" t="s">
         <v>319</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3590,7 +4012,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3610,7 +4032,7 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="15" t="s">
         <v>320</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3630,7 +4052,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="15" t="s">
         <v>321</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3650,7 +4072,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="15" t="s">
         <v>322</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -3670,7 +4092,7 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="15" t="s">
         <v>323</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3690,7 +4112,7 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="15" t="s">
         <v>324</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3710,7 +4132,7 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="15" t="s">
         <v>325</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3730,7 +4152,7 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="15" t="s">
         <v>326</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3750,7 +4172,7 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="15" t="s">
         <v>327</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3770,7 +4192,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="15" t="s">
         <v>328</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3790,7 +4212,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="15" t="s">
         <v>329</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3810,7 +4232,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3830,7 +4252,7 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="15" t="s">
         <v>331</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3850,7 +4272,7 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="15" t="s">
         <v>332</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3870,7 +4292,7 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="15" t="s">
         <v>333</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3890,7 +4312,7 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3910,7 +4332,7 @@
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="15" t="s">
         <v>334</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3930,7 +4352,7 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3950,7 +4372,7 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="15" t="s">
         <v>335</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3970,7 +4392,7 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="41"/>
+      <c r="B51" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
